--- a/biology/Zoologie/Heliodinidae/Heliodinidae.xlsx
+++ b/biology/Zoologie/Heliodinidae/Heliodinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heliodinidae sont une famille de petits papillons aux corps minces et aux ailes étroites. Les membres de cette famille se rencontrent dans toutes les régions du monde. Elle comprend environ 400 espèces réparties en 64 genres.
-L'espèce Heliodines roesella est présente en France[2], notamment en Poitou-Charentes[3].
+L'espèce Heliodines roesella est présente en France, notamment en Poitou-Charentes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (7 juillet 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (7 juillet 2020) :
 genre Acanthocasis Meyrick, 1921
 genre Adamantoscelis Diakonoff, 1955
 genre Agalmoscelis Diakonoff, 1955
@@ -596,14 +610,16 @@
           <t>Anciens genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aenicteria
 Coracistis
 Lamachaera
 Percnarcha
 Placoptila
-Zapyrastra (répertorié dans les Heliodinidae mais fait maintenant partie des Momphidae)[4]</t>
+Zapyrastra (répertorié dans les Heliodinidae mais fait maintenant partie des Momphidae)</t>
         </is>
       </c>
     </row>
